--- a/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
@@ -257,10 +257,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.createTime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -270,6 +266,10 @@
   </si>
   <si>
     <t>${obj.isFastDeliver}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.createDataTime}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,7 +807,7 @@
         <v>50</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>25</v>
@@ -887,10 +887,10 @@
         <v>49</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="AA3")</t>
+          <t>jx:area(lastCell="Y3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="AA3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="Y3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve"> 货号</t>
   </si>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>附条码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.barCodes}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>规格</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -134,14 +126,6 @@
   </si>
   <si>
     <t>${obj.distributionPrice}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>批发价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.wholesalePrice}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -679,24 +663,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.625" customWidth="1"/>
-    <col min="16" max="27" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="25" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -724,10 +708,8 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,43 +738,43 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>44</v>
@@ -801,16 +783,10 @@
         <v>46</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -839,63 +815,57 @@
         <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Y3")</t>
+          <t>jx:area(lastCell="Z3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve"> 货号</t>
   </si>
@@ -254,13 +254,21 @@
   </si>
   <si>
     <t>${obj.createDataTime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.salePrice}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -663,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,13 +682,13 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="25" width="12.625" customWidth="1"/>
+    <col min="4" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="26" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -708,8 +716,9 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,55 +747,58 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -815,57 +827,60 @@
         <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Y3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="Z3")</t>
         </r>
       </text>
     </comment>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
+++ b/src/main/resources/template/excel/export/BranchGoodsSaleReport.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27540" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,11 +39,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Z3")</t>
+          <t>jx:area(lastCell="Z4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve"> 货号</t>
   </si>
@@ -262,6 +267,21 @@
   </si>
   <si>
     <t>${obj.salePrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计:</t>
+    <rPh sb="0" eb="1">
+      <t>he'j</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(P3:P3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +392,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -671,24 +691,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="26" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="26" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -718,7 +738,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -877,6 +897,40 @@
       <c r="Z3" s="3" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
